--- a/AS-Task1-feature_generation.xlsx
+++ b/AS-Task1-feature_generation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somani4\Documents\GitHub\ECE498_Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76868A83-AB23-41D3-B1D5-4CE2F5544FDC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A84AAA-867F-411E-ACFA-60D9CB76EBAD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" activeTab="4" xr2:uid="{6979EBDE-FDCA-4B42-918E-2C70D40B6D11}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="199">
   <si>
     <t>ADX/DMS</t>
   </si>
@@ -1101,7 +1101,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,6 +1129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,7 +1197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1232,9 +1238,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1255,6 +1258,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2592,7 +2606,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2602,28 +2616,28 @@
     <col min="3" max="3" width="70.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="30" customFormat="1" ht="18.5" thickBot="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" s="29" customFormat="1" ht="18.5" thickBot="1">
+      <c r="A1" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="32" customFormat="1">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:6" s="31" customFormat="1">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="18" t="s">
@@ -2637,17 +2651,17 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:6" s="31" customFormat="1">
+      <c r="A4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="18" t="s">
@@ -2683,7 +2697,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2705,7 +2719,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2723,19 +2737,19 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="36" customFormat="1">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:6" s="35" customFormat="1">
+      <c r="A12" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="39" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2767,14 +2781,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="32" customFormat="1">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:6" s="31" customFormat="1">
+      <c r="A16" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2824,14 +2838,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="32" customFormat="1">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:3" s="31" customFormat="1">
+      <c r="A22" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2852,7 +2866,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="39" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2884,14 +2898,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="26" t="s">
+    <row r="28" spans="1:3" s="31" customFormat="1">
+      <c r="A28" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="37" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2958,14 +2972,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="26" t="s">
+    <row r="35" spans="1:3" s="43" customFormat="1">
+      <c r="A35" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="42" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2980,25 +2994,25 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="26" t="s">
+    <row r="37" spans="1:3" s="31" customFormat="1">
+      <c r="A37" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="40" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="26" t="s">
+    <row r="38" spans="1:3" s="31" customFormat="1">
+      <c r="A38" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="31" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3057,10 +3071,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3">
